--- a/modules/parabole-module-ccar/Glossary_Resource.xlsx
+++ b/modules/parabole-module-ccar/Glossary_Resource.xlsx
@@ -1,81 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sandbox\workspace\rda\parabole-solution-rda\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
-  <si>
-    <t>Occupancy Rate</t>
-  </si>
-  <si>
-    <t>EBIDTA</t>
-  </si>
-  <si>
-    <t>Debt Coverge</t>
-  </si>
-  <si>
-    <t>Sales Turnover</t>
-  </si>
-  <si>
-    <t>Leverage Ratio</t>
-  </si>
-  <si>
-    <t>Return on Networth</t>
-  </si>
-  <si>
-    <t>Inventory Turnover Days</t>
-  </si>
-  <si>
-    <t>Accounts Payable Turnover</t>
-  </si>
-  <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
-    <t>Operating Profit Margin</t>
-  </si>
-  <si>
-    <t>Debt Coverage</t>
-  </si>
-  <si>
-    <t>Limit Utilization</t>
-  </si>
-  <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
-    <t>Age of Banking Relationship</t>
-  </si>
-  <si>
-    <t>Constitution of Entity</t>
-  </si>
-  <si>
-    <t>numner of years in business</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>LinesOfBusiness</t>
+  </si>
+  <si>
+    <t>TotalAsset_ByCustomerSegment_ByIndustryType</t>
+  </si>
+  <si>
+    <t>System_AccountReceivable</t>
+  </si>
+  <si>
+    <t>Lines Of Business</t>
+  </si>
+  <si>
+    <t>TotalAsset_ByCS_ByIT</t>
+  </si>
+  <si>
+    <t>Sys_AccReceivable</t>
+  </si>
+  <si>
+    <t>CIT_Tracking_Segment_PD_BusinessSegment</t>
+  </si>
+  <si>
+    <t>CIT_Trk_Seg_PD_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -100,45 +71,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,10 +161,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -444,303 +386,98 @@
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
